--- a/downloads/ffi_sample_payslip.xlsx
+++ b/downloads/ffi_sample_payslip.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Wbo_fretusfolks\downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047CA7CD-2F1A-4772-9210-0DD35378190E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary sheet" sheetId="2" r:id="rId1"/>
@@ -15,12 +21,20 @@
   <definedNames>
     <definedName name="Roles">[1]Lookups!$F$2:$F$6</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Date of Joining</t>
   </si>
@@ -197,39 +211,12 @@
   </si>
   <si>
     <t>Earned Gross</t>
-  </si>
-  <si>
-    <t>VIGNESH R</t>
-  </si>
-  <si>
-    <t>BDE</t>
-  </si>
-  <si>
-    <t>PY/KRP/1707599/10129</t>
-  </si>
-  <si>
-    <t>Indusind Bank</t>
-  </si>
-  <si>
-    <t>056821575212</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>INDB0000051</t>
-  </si>
-  <si>
-    <t>Twenty Thousand Three Hundred &amp; Forty Seven  Only</t>
-  </si>
-  <si>
-    <t>FFI0017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -364,19 +351,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Custom - Style8" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Custom - Style8" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Style 1" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Style 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Index"/>
@@ -486,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,9 +513,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,6 +565,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,23 +758,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="23.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="2"/>
-    <col min="2" max="3" width="23.28515625" style="3"/>
-    <col min="4" max="4" width="23.28515625" style="5"/>
-    <col min="5" max="8" width="23.28515625" style="2"/>
-    <col min="9" max="11" width="23.28515625" style="3"/>
-    <col min="12" max="17" width="23.28515625" style="2"/>
-    <col min="18" max="19" width="23.28515625" style="4"/>
-    <col min="20" max="16384" width="23.28515625" style="1"/>
+    <col min="1" max="1" width="23.33203125" style="2"/>
+    <col min="2" max="3" width="23.33203125" style="3"/>
+    <col min="4" max="4" width="23.33203125" style="5"/>
+    <col min="5" max="8" width="23.33203125" style="2"/>
+    <col min="9" max="11" width="23.33203125" style="3"/>
+    <col min="12" max="17" width="23.33203125" style="2"/>
+    <col min="18" max="19" width="23.33203125" style="4"/>
+    <col min="20" max="16384" width="23.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="9" customFormat="1" ht="64.5" customHeight="1">
@@ -925,203 +956,127 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="18" customFormat="1">
-      <c r="A2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42726</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="13">
-        <v>101013451116</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="10">
-        <v>5039860346</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="12">
-        <v>31</v>
-      </c>
-      <c r="M2" s="12">
-        <v>31</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>7600</v>
-      </c>
-      <c r="S2" s="10">
-        <v>3040</v>
-      </c>
-      <c r="T2" s="10">
-        <v>1600</v>
-      </c>
-      <c r="U2" s="10">
-        <v>1</v>
-      </c>
-      <c r="V2" s="10">
-        <v>2</v>
-      </c>
-      <c r="W2" s="10">
-        <v>8719</v>
-      </c>
-      <c r="X2" s="10">
-        <v>500</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="10">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="10">
-        <f>SUM(R2:AF2)</f>
-        <v>21514</v>
-      </c>
-      <c r="AH2" s="10">
-        <f>R2/$L$2*$M$2</f>
-        <v>7600</v>
-      </c>
-      <c r="AI2" s="10">
-        <f t="shared" ref="AI2:AV2" si="0">S2/$L$2*$M$2</f>
-        <v>3040</v>
-      </c>
-      <c r="AJ2" s="10">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="AK2" s="10">
-        <v>11</v>
-      </c>
-      <c r="AL2" s="10">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="10">
-        <f t="shared" si="0"/>
-        <v>8719</v>
-      </c>
-      <c r="AN2" s="10">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AO2" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AP2" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AR2" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AS2" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AT2" s="10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AU2" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AV2" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AW2" s="10">
-        <f>SUM(AH2:AV2)</f>
-        <v>21534</v>
-      </c>
-      <c r="AX2" s="17">
-        <f>ROUND(R2*12%,0)</f>
-        <v>912</v>
-      </c>
-      <c r="AY2" s="17">
-        <v>13</v>
-      </c>
-      <c r="AZ2" s="17">
-        <f>IF(AG2&gt;15000,200,0)</f>
-        <v>200</v>
-      </c>
-      <c r="BA2" s="17">
-        <v>14</v>
-      </c>
-      <c r="BB2" s="17">
-        <v>15</v>
-      </c>
-      <c r="BC2" s="17">
-        <v>16</v>
-      </c>
-      <c r="BD2" s="17">
-        <v>17</v>
-      </c>
-      <c r="BE2" s="10">
-        <f>SUM(AX2:BD2)</f>
-        <v>1187</v>
-      </c>
-      <c r="BF2" s="10">
-        <f>AW2-BE2</f>
-        <v>20347</v>
-      </c>
-      <c r="BG2" s="15" t="s">
-        <v>66</v>
-      </c>
+    <row r="2" spans="1:59" s="18" customFormat="1" ht="15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="15"/>
+    </row>
+    <row r="3" spans="1:59" s="18" customFormat="1" ht="15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
